--- a/biology/Botanique/Georges_Poirault/Georges_Poirault.xlsx
+++ b/biology/Botanique/Georges_Poirault/Georges_Poirault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Henri Georges Poirault, dit Georges Poirault, (né à Poitiers le 3 septembre 1858 - mort à Antibes le 10 février 1936) est un agronome français. Il est le fils de Jules Poirault.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut le directeur de la Villa Thuret à Antibes de 1899 jusqu'à son décès.
 </t>
@@ -542,9 +556,11 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Recherches d'histogénie végétale : développement des tissus dans les organes végétatifs des cryptogames vasculaires, St-Pétersbourg : Eggers et J. Glasounof ; Riga : M. N. Kymmel &amp; Leipzig : G. Haessel, 1890, 26 p. + pl. [1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Recherches d'histogénie végétale : développement des tissus dans les organes végétatifs des cryptogames vasculaires, St-Pétersbourg : Eggers et J. Glasounof ; Riga : M. N. Kymmel &amp; Leipzig : G. Haessel, 1890, 26 p. + pl. 
 Recherches anatomiques sur les cryptogames vasculaires, Masson, 1894, 144 p.
 Über konjugate Kerne und die konjugate Kernteilung : eine Zusammenfassung, mit Marian Raciborski, 1896, 6 seit.
 Villa Thuret : Laboratoire pour les études de culture et de botanique - Antibes, Catalogue des graines récoltées en 1909, avec B. Texier, 1910
@@ -557,7 +573,7 @@
 Les Urédinées et leurs plantes nourricières, impr. de J. Mersch, 26 p.
 Sur les noyaux des Urédinées, 1895.
 Recueil de cours
-Les insectes : morphologie, reproduction, embryogénie de Louis-Félix Henneguy, leçons recueillies par Albert Lécaillon et G. Poirault, Paris, Masson, 1904, 804 p. avec 622 fig. &amp; 4 pl. hors texte [2].
+Les insectes : morphologie, reproduction, embryogénie de Louis-Félix Henneguy, leçons recueillies par Albert Lécaillon et G. Poirault, Paris, Masson, 1904, 804 p. avec 622 fig. &amp; 4 pl. hors texte .
 Traductions
 Manuel de géographie botanique, du docteur Oscar Drude, 1890, traduit de l'allemand, 1897</t>
         </is>
